--- a/Excel/Lunsj.xlsx
+++ b/Excel/Lunsj.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaja_\Dokumenter\Webtek\Excel_to_text\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaja_\Dokumenter\Webtek\Nettside_webtek_28\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACD1066-5922-4848-BFD0-EEFC60D00589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B901F5-39BD-49F6-8CDF-E1D7954D604B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{354E3EA9-B6A9-4B4F-B82E-DE6A74B1957E}"/>
+    <workbookView xWindow="1248" yWindow="264" windowWidth="16968" windowHeight="11832" xr2:uid="{354E3EA9-B6A9-4B4F-B82E-DE6A74B1957E}"/>
   </bookViews>
   <sheets>
     <sheet name="Lunsj" sheetId="1" r:id="rId1"/>
@@ -62,19 +62,19 @@
     <t>Beskrivelse</t>
   </si>
   <si>
-    <t>Serveres med salat og hjemmelaget dressing. 1,2, 8</t>
-  </si>
-  <si>
-    <t>Omelett med skinke, ost og vårløk. Serveres med salat og hjemmelaget dressing. 2, 3, 8</t>
-  </si>
-  <si>
-    <t>Omelett med paprika, vårløk og ost. Serveres med salat og hjemmelaget dressing. 2, 3, 8</t>
-  </si>
-  <si>
-    <t>Omelett med ost og bacon. Serveres med salat og hjemmelaget dressing. 2, 3, 8</t>
-  </si>
-  <si>
-    <t>Pai med ost, skinke, vårløk og fløte. Serveres med salat og hjemmelaget dressing. 1, 2, 3, 8</t>
+    <t>Omelett med paprika, vårlauk og ost. Serverast med salat og heimelaga dressing. 2, 3, 8</t>
+  </si>
+  <si>
+    <t>Omelett med skinke, ost og vårløk. Serverast med salat og heimelaga dressing. 2, 3, 8</t>
+  </si>
+  <si>
+    <t>Serverast med salat og heimelaga dressing. 1,2, 8</t>
+  </si>
+  <si>
+    <t>Omelett med ost og bacon. Serverast med salat og heimelaga dressing. 2, 3, 8</t>
+  </si>
+  <si>
+    <t>Pai med ost, skinke, vårløk og fløte. Serverast med salat og heimelaga dressing. 1, 2, 3, 8</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB87AB64-3129-4D51-A07F-42DD1AB83098}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -456,7 +458,7 @@
         <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -478,7 +480,7 @@
         <v>160</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">

--- a/Excel/Lunsj.xlsx
+++ b/Excel/Lunsj.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaja_\Dokumenter\Webtek\Nettside_webtek_28\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\signe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B901F5-39BD-49F6-8CDF-E1D7954D604B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDD40A2-7BA8-47FD-80DD-52DC8DC628AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1248" yWindow="264" windowWidth="16968" windowHeight="11832" xr2:uid="{354E3EA9-B6A9-4B4F-B82E-DE6A74B1957E}"/>
+    <workbookView xWindow="1416" yWindow="1728" windowWidth="21624" windowHeight="12672" xr2:uid="{354E3EA9-B6A9-4B4F-B82E-DE6A74B1957E}"/>
   </bookViews>
   <sheets>
     <sheet name="Lunsj" sheetId="1" r:id="rId1"/>
@@ -65,16 +65,16 @@
     <t>Omelett med paprika, vårlauk og ost. Serverast med salat og heimelaga dressing. 2, 3, 8</t>
   </si>
   <si>
-    <t>Omelett med skinke, ost og vårløk. Serverast med salat og heimelaga dressing. 2, 3, 8</t>
-  </si>
-  <si>
     <t>Serverast med salat og heimelaga dressing. 1,2, 8</t>
   </si>
   <si>
     <t>Omelett med ost og bacon. Serverast med salat og heimelaga dressing. 2, 3, 8</t>
   </si>
   <si>
-    <t>Pai med ost, skinke, vårløk og fløte. Serverast med salat og heimelaga dressing. 1, 2, 3, 8</t>
+    <t>Omelett med skinke, ost og vårlauk. Serverast med salat og heimelaga dressing. 2, 3, 8</t>
+  </si>
+  <si>
+    <t>Pai med ost, skinke, vårlauk og fløte. Serverast med salat og heimelaga dressing. 1, 2, 3, 8</t>
   </si>
 </sst>
 </file>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -432,7 +432,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="48.77734375" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
@@ -458,7 +458,7 @@
         <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -469,7 +469,7 @@
         <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -491,7 +491,7 @@
         <v>176</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
